--- a/Pivot Table/Format Pivot Table/NET Standard/Format Pivot Table/Format Pivot Table/Data/InputTemplate.xlsx
+++ b/Pivot Table/Format Pivot Table/NET Standard/Format Pivot Table/Format Pivot Table/Data/InputTemplate.xlsx
@@ -1,25 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XlsIO - GitHub Samples\WF-62424-GitHubSamples-Phase11\Pivot Table\Format Pivot Table\NET Standard\Format Pivot Table\Format Pivot Table\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE06FFA8-4272-4BC4-A576-270598980E87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15255" windowHeight="8925" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="PivotTable" sheetId="2" r:id="rId2"/>
-    <sheet name="Evaluation Warning" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr fullPrecision="1" calcId="124519"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="27" r:id="rId3"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27" count="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -99,83 +115,72 @@
     <t>File Folder</t>
   </si>
   <si>
-    <t>Created with a trial version of Syncfusion Essential XlsIO</t>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial Narrow"/>
-      <charset val="0"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="64"/>
-        <bgColor indexed="65"/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor indexed="64"/>
-        <bgColor indexed="65"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999938962981048"/>
-        <bgColor theme="4" tint="0.5999938962981048"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.7999816888943144"/>
-        <bgColor theme="4" tint="0.7999816888943144"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
     <fill>
@@ -185,7 +190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -206,13 +211,13 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.3999755851924192"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </left>
       <right style="thin">
         <color theme="0"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.3999755851924192"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </top>
       <bottom style="thick">
         <color theme="0"/>
@@ -225,7 +230,7 @@
         <color theme="0"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.3999755851924192"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </top>
       <bottom style="thick">
         <color theme="0"/>
@@ -235,10 +240,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color theme="4" tint="0.3999755851924192"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.3999755851924192"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </top>
       <bottom style="thick">
         <color theme="0"/>
@@ -247,7 +252,7 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.3999755851924192"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </left>
       <right style="thin">
         <color theme="0"/>
@@ -261,7 +266,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color theme="4" tint="0.3999755851924192"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -271,14 +276,14 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.3999755851924192"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </left>
       <right style="thin">
         <color theme="0"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color theme="4" tint="0.3999755851924192"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
@@ -289,203 +294,309 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color theme="4" tint="0.3999755851924192"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="4" tint="0.3999755851924192"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color theme="4" tint="0.3999755851924192"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="34">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs>
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="5" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="5" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="2" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="2" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="3" xfId="2" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="4" borderId="3" xfId="4" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="4" borderId="4" xfId="4" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="2" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="6" xfId="2" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="2" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="6" xfId="2" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="2" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="2" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="2" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="3" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="8" xfId="1" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="9" xfId="2" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" pivotButton="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Currency_TapePivot" xfId="4"/>
+    <cellStyle name="Currency_TapePivot" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_PivotSizeTest" xfId="2"/>
-    <cellStyle name="Normal_Sheet1" xfId="5"/>
-    <cellStyle name="Normal_TapePivot" xfId="3"/>
+    <cellStyle name="Normal_PivotSizeTest" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal_Sheet1" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal_TapePivot" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
-  <dxfs xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns:p1="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" p1:id="rId1" refreshedBy="Syncfusion" refreshedDate="44613.66565054398" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" refreshOnLoad="1" recordCount="0">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Konduru Keerthi Konduru Ravichandra Raju" refreshedDate="44613.684976620367" createdVersion="3" refreshedVersion="7" minRefreshableVersion="3" recordCount="49" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H50" sheet="Data"/>
   </cacheSource>
   <cacheFields count="8">
-    <cacheField name="Date" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0">
-        <d v="2007-12-15T00:00:00"/>
-        <d v="2007-12-18T00:00:00"/>
-        <d v="2007-12-21T00:00:00"/>
-        <d v="2007-12-24T00:00:00"/>
-        <d v="2007-12-27T00:00:00"/>
-        <d v="2007-12-30T00:00:00"/>
-        <d v="2008-01-02T00:00:00"/>
-        <d v="2008-01-05T00:00:00"/>
-        <d v="2008-01-08T00:00:00"/>
-        <d v="2008-01-11T00:00:00"/>
-        <d v="2008-01-14T00:00:00"/>
-        <d v="2008-01-17T00:00:00"/>
-        <d v="2008-01-20T00:00:00"/>
-        <d v="2008-01-23T00:00:00"/>
-        <d v="2008-01-26T00:00:00"/>
-        <d v="2008-01-29T00:00:00"/>
-        <d v="2008-02-01T00:00:00"/>
-        <d v="2008-02-04T00:00:00"/>
-        <d v="2008-02-07T00:00:00"/>
-        <d v="2008-02-10T00:00:00"/>
-        <d v="2008-02-13T00:00:00"/>
-        <d v="2008-02-16T00:00:00"/>
-        <d v="2008-02-19T00:00:00"/>
-        <d v="2008-02-22T00:00:00"/>
-        <d v="2008-02-25T00:00:00"/>
-        <d v="2008-02-28T00:00:00"/>
-        <d v="2008-03-02T00:00:00"/>
-        <d v="2008-03-05T00:00:00"/>
-        <d v="2008-03-08T00:00:00"/>
-        <d v="2008-03-11T00:00:00"/>
-        <d v="2008-03-14T00:00:00"/>
-        <d v="2008-03-17T00:00:00"/>
-        <d v="2008-03-20T00:00:00"/>
-        <d v="2008-03-23T00:00:00"/>
-        <d v="2008-03-26T00:00:00"/>
-        <d v="2008-03-29T00:00:00"/>
-        <d v="2008-04-01T00:00:00"/>
-        <d v="2008-04-04T00:00:00"/>
-        <d v="2008-04-07T00:00:00"/>
-        <d v="2008-04-10T00:00:00"/>
-        <d v="2008-04-13T00:00:00"/>
-        <d v="2008-04-16T00:00:00"/>
-        <d v="2008-04-19T00:00:00"/>
-        <d v="2008-04-22T00:00:00"/>
-        <d v="2008-04-25T00:00:00"/>
-        <d v="2008-04-28T00:00:00"/>
-        <d v="2008-05-01T00:00:00"/>
-        <d v="2008-05-04T00:00:00"/>
-        <d v="2008-05-07T00:00:00"/>
-      </sharedItems>
+    <cacheField name="Date" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2007-12-15T00:00:00" maxDate="2008-05-08T00:00:00"/>
     </cacheField>
-    <cacheField name="Weekday" numFmtId="0">
-      <sharedItems>
-        <s v="Saturday"/>
-        <s v="Tuesday"/>
-        <s v="Friday"/>
-        <s v="Monday"/>
-        <s v="Thursday"/>
-        <s v="Sunday"/>
-        <s v="Wednesday"/>
-      </sharedItems>
+    <cacheField name="Weekday" numFmtId="164">
+      <sharedItems/>
     </cacheField>
     <cacheField name="Region" numFmtId="0">
-      <sharedItems>
+      <sharedItems count="3">
         <s v="Central"/>
         <s v="West"/>
         <s v="East"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Employee" numFmtId="0">
-      <sharedItems>
+      <sharedItems count="8">
         <s v="Jones"/>
         <s v="Kivell"/>
         <s v="Howard"/>
@@ -497,62 +608,15 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Item" numFmtId="0">
-      <sharedItems>
-        <s v="Pen Set"/>
-        <s v="Binder"/>
-        <s v="Pen &amp; Pencil"/>
-        <s v="Pen"/>
-        <s v="Paper"/>
-        <s v="Desk"/>
-        <s v="File Folder"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Units" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1">
-        <n v="700"/>
-        <n v="85"/>
-        <n v="62"/>
-        <n v="58"/>
-        <n v="10"/>
-        <n v="19"/>
-        <n v="6"/>
-        <n v="39"/>
-        <n v="1"/>
-        <n v="80"/>
-        <n v="51"/>
-        <n v="15"/>
-        <n v="31"/>
-        <n v="46"/>
-        <n v="61"/>
-        <n v="90"/>
-        <n v="43"/>
-        <n v="32"/>
-        <n v="37"/>
-        <n v="26"/>
-        <n v="79"/>
-        <n v="72"/>
-        <n v="27"/>
-        <n v="5"/>
-        <n v="59"/>
-        <n v="41"/>
-        <n v="9"/>
-        <n v="52"/>
-        <n v="75"/>
-        <n v="97"/>
-        <n v="86"/>
-        <n v="8"/>
-        <n v="33"/>
-        <n v="53"/>
-        <n v="25"/>
-        <n v="87"/>
-        <n v="95"/>
-        <n v="68"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="700"/>
     </cacheField>
-    <cacheField name="Unit Cost" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="0">
+    <cacheField name="Unit Cost" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.29" maxValue="275" count="13">
         <n v="1.99"/>
-        <n v="19.99"/>
+        <n v="19.989999999999998"/>
         <n v="4.99"/>
         <n v="2.99"/>
         <n v="8.99"/>
@@ -566,53 +630,8 @@
         <n v="5.99"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Total" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="0">
-        <n v="1393"/>
-        <n v="1699.1499999999999"/>
-        <n v="309.38"/>
-        <n v="1159.4199999999998"/>
-        <n v="49.900000000000006"/>
-        <n v="56.81"/>
-        <n v="11.94"/>
-        <n v="77.61"/>
-        <n v="8.99"/>
-        <n v="399.20000000000005"/>
-        <n v="101.49"/>
-        <n v="199.89999999999998"/>
-        <n v="74.85000000000001"/>
-        <n v="3875"/>
-        <n v="735.54"/>
-        <n v="548.39"/>
-        <n v="809.1"/>
-        <n v="859.5699999999999"/>
-        <n v="159.68"/>
-        <n v="47.730000000000004"/>
-        <n v="415.74"/>
-        <n v="710.21"/>
-        <n v="1080"/>
-        <n v="134.73000000000002"/>
-        <n v="99.94999999999999"/>
-        <n v="294.41"/>
-        <n v="81.59"/>
-        <n v="424.15000000000003"/>
-        <n v="78.69"/>
-        <n v="80.91"/>
-        <n v="6500"/>
-        <n v="374.25"/>
-        <n v="1211.53"/>
-        <n v="2059.7"/>
-        <n v="2200"/>
-        <n v="116.10000000000001"/>
-        <n v="65.67"/>
-        <n v="1059.47"/>
-        <n v="32.25"/>
-        <n v="434.13"/>
-        <n v="1899.05"/>
-        <n v="339.32"/>
-        <n v="94.81"/>
-        <n v="113.81"/>
-      </sharedItems>
+    <cacheField name="Total" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8.99" maxValue="6500"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -624,17 +643,508 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="49">
+  <r>
+    <d v="2007-12-15T00:00:00"/>
+    <s v="Saturday"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Pen Set"/>
+    <n v="700"/>
+    <x v="0"/>
+    <n v="1393"/>
+  </r>
+  <r>
+    <d v="2007-12-18T00:00:00"/>
+    <s v="Tuesday"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Binder"/>
+    <n v="85"/>
+    <x v="1"/>
+    <n v="1699.1499999999999"/>
+  </r>
+  <r>
+    <d v="2007-12-21T00:00:00"/>
+    <s v="Friday"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Pen &amp; Pencil"/>
+    <n v="62"/>
+    <x v="2"/>
+    <n v="309.38"/>
+  </r>
+  <r>
+    <d v="2007-12-24T00:00:00"/>
+    <s v="Monday"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="Pen"/>
+    <n v="58"/>
+    <x v="1"/>
+    <n v="1159.4199999999998"/>
+  </r>
+  <r>
+    <d v="2007-12-27T00:00:00"/>
+    <s v="Thursday"/>
+    <x v="2"/>
+    <x v="4"/>
+    <s v="Binder"/>
+    <n v="10"/>
+    <x v="2"/>
+    <n v="49.900000000000006"/>
+  </r>
+  <r>
+    <d v="2007-12-30T00:00:00"/>
+    <s v="Sunday"/>
+    <x v="2"/>
+    <x v="4"/>
+    <s v="Pen Set"/>
+    <n v="19"/>
+    <x v="3"/>
+    <n v="56.81"/>
+  </r>
+  <r>
+    <d v="2008-01-02T00:00:00"/>
+    <s v="Wednesday"/>
+    <x v="2"/>
+    <x v="4"/>
+    <s v="Pen Set"/>
+    <n v="6"/>
+    <x v="0"/>
+    <n v="11.94"/>
+  </r>
+  <r>
+    <d v="2008-01-05T00:00:00"/>
+    <s v="Saturday"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Pen &amp; Pencil"/>
+    <n v="10"/>
+    <x v="2"/>
+    <n v="49.900000000000006"/>
+  </r>
+  <r>
+    <d v="2008-01-08T00:00:00"/>
+    <s v="Tuesday"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="Paper"/>
+    <n v="39"/>
+    <x v="0"/>
+    <n v="77.61"/>
+  </r>
+  <r>
+    <d v="2008-01-11T00:00:00"/>
+    <s v="Friday"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="Binder"/>
+    <n v="1"/>
+    <x v="4"/>
+    <n v="8.99"/>
+  </r>
+  <r>
+    <d v="2008-01-14T00:00:00"/>
+    <s v="Monday"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="Pen &amp; Pencil"/>
+    <n v="80"/>
+    <x v="2"/>
+    <n v="399.20000000000005"/>
+  </r>
+  <r>
+    <d v="2008-01-17T00:00:00"/>
+    <s v="Thursday"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="Binder"/>
+    <n v="51"/>
+    <x v="0"/>
+    <n v="101.49"/>
+  </r>
+  <r>
+    <d v="2008-01-20T00:00:00"/>
+    <s v="Sunday"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="Binder"/>
+    <n v="10"/>
+    <x v="1"/>
+    <n v="199.89999999999998"/>
+  </r>
+  <r>
+    <d v="2008-01-23T00:00:00"/>
+    <s v="Wednesday"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="Pen Set"/>
+    <n v="15"/>
+    <x v="2"/>
+    <n v="74.850000000000009"/>
+  </r>
+  <r>
+    <d v="2008-01-26T00:00:00"/>
+    <s v="Saturday"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="Desk"/>
+    <n v="31"/>
+    <x v="5"/>
+    <n v="3875"/>
+  </r>
+  <r>
+    <d v="2008-01-29T00:00:00"/>
+    <s v="Tuesday"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Pen Set"/>
+    <n v="46"/>
+    <x v="6"/>
+    <n v="735.54"/>
+  </r>
+  <r>
+    <d v="2008-02-01T00:00:00"/>
+    <s v="Friday"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Binder"/>
+    <n v="61"/>
+    <x v="4"/>
+    <n v="548.39"/>
+  </r>
+  <r>
+    <d v="2008-02-04T00:00:00"/>
+    <s v="Monday"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Pen"/>
+    <n v="90"/>
+    <x v="4"/>
+    <n v="809.1"/>
+  </r>
+  <r>
+    <d v="2008-02-07T00:00:00"/>
+    <s v="Thursday"/>
+    <x v="2"/>
+    <x v="6"/>
+    <s v="Pen"/>
+    <n v="43"/>
+    <x v="1"/>
+    <n v="859.56999999999994"/>
+  </r>
+  <r>
+    <d v="2008-02-10T00:00:00"/>
+    <s v="Sunday"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Pen Set"/>
+    <n v="32"/>
+    <x v="2"/>
+    <n v="159.68"/>
+  </r>
+  <r>
+    <d v="2008-02-13T00:00:00"/>
+    <s v="Wednesday"/>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="Pen Set"/>
+    <n v="37"/>
+    <x v="7"/>
+    <n v="47.730000000000004"/>
+  </r>
+  <r>
+    <d v="2008-02-16T00:00:00"/>
+    <s v="Saturday"/>
+    <x v="2"/>
+    <x v="6"/>
+    <s v="Pen Set"/>
+    <n v="26"/>
+    <x v="6"/>
+    <n v="415.74"/>
+  </r>
+  <r>
+    <d v="2008-02-19T00:00:00"/>
+    <s v="Tuesday"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="Binder"/>
+    <n v="79"/>
+    <x v="4"/>
+    <n v="710.21"/>
+  </r>
+  <r>
+    <d v="2008-02-22T00:00:00"/>
+    <s v="Friday"/>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="Pen Set"/>
+    <n v="72"/>
+    <x v="8"/>
+    <n v="1080"/>
+  </r>
+  <r>
+    <d v="2008-02-25T00:00:00"/>
+    <s v="Monday"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Pen Set"/>
+    <n v="27"/>
+    <x v="2"/>
+    <n v="134.73000000000002"/>
+  </r>
+  <r>
+    <d v="2008-02-28T00:00:00"/>
+    <s v="Thursday"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Binder"/>
+    <n v="5"/>
+    <x v="1"/>
+    <n v="99.949999999999989"/>
+  </r>
+  <r>
+    <d v="2008-03-02T00:00:00"/>
+    <s v="Sunday"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Pen Set"/>
+    <n v="59"/>
+    <x v="2"/>
+    <n v="294.41000000000003"/>
+  </r>
+  <r>
+    <d v="2008-03-05T00:00:00"/>
+    <s v="Wednesday"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="Pen Set"/>
+    <n v="41"/>
+    <x v="0"/>
+    <n v="81.59"/>
+  </r>
+  <r>
+    <d v="2008-03-08T00:00:00"/>
+    <s v="Saturday"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Pen"/>
+    <n v="85"/>
+    <x v="2"/>
+    <n v="424.15000000000003"/>
+  </r>
+  <r>
+    <d v="2008-03-11T00:00:00"/>
+    <s v="Tuesday"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="Pen Set"/>
+    <n v="61"/>
+    <x v="7"/>
+    <n v="78.69"/>
+  </r>
+  <r>
+    <d v="2008-03-14T00:00:00"/>
+    <s v="Friday"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="Binder"/>
+    <n v="9"/>
+    <x v="4"/>
+    <n v="80.91"/>
+  </r>
+  <r>
+    <d v="2008-03-17T00:00:00"/>
+    <s v="Monday"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Desk"/>
+    <n v="52"/>
+    <x v="5"/>
+    <n v="6500"/>
+  </r>
+  <r>
+    <d v="2008-03-20T00:00:00"/>
+    <s v="Thursday"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Pen Set"/>
+    <n v="75"/>
+    <x v="2"/>
+    <n v="374.25"/>
+  </r>
+  <r>
+    <d v="2008-03-23T00:00:00"/>
+    <s v="Sunday"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Pen Set"/>
+    <n v="97"/>
+    <x v="9"/>
+    <n v="1211.53"/>
+  </r>
+  <r>
+    <d v="2008-03-26T00:00:00"/>
+    <s v="Wednesday"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Pen Set"/>
+    <n v="86"/>
+    <x v="10"/>
+    <n v="2059.6999999999998"/>
+  </r>
+  <r>
+    <d v="2008-03-29T00:00:00"/>
+    <s v="Saturday"/>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="Desk"/>
+    <n v="8"/>
+    <x v="11"/>
+    <n v="2200"/>
+  </r>
+  <r>
+    <d v="2008-04-01T00:00:00"/>
+    <s v="Tuesday"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="Pen Set"/>
+    <n v="90"/>
+    <x v="7"/>
+    <n v="116.10000000000001"/>
+  </r>
+  <r>
+    <d v="2008-04-04T00:00:00"/>
+    <s v="Friday"/>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="Pen"/>
+    <n v="33"/>
+    <x v="0"/>
+    <n v="65.67"/>
+  </r>
+  <r>
+    <d v="2008-04-07T00:00:00"/>
+    <s v="Monday"/>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="Binder"/>
+    <n v="53"/>
+    <x v="1"/>
+    <n v="1059.47"/>
+  </r>
+  <r>
+    <d v="2008-04-10T00:00:00"/>
+    <s v="Thursday"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="Pen Set"/>
+    <n v="25"/>
+    <x v="7"/>
+    <n v="32.25"/>
+  </r>
+  <r>
+    <d v="2008-04-13T00:00:00"/>
+    <s v="Sunday"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Binder"/>
+    <n v="87"/>
+    <x v="2"/>
+    <n v="434.13"/>
+  </r>
+  <r>
+    <d v="2008-04-16T00:00:00"/>
+    <s v="Wednesday"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Binder"/>
+    <n v="95"/>
+    <x v="1"/>
+    <n v="1899.05"/>
+  </r>
+  <r>
+    <d v="2008-04-19T00:00:00"/>
+    <s v="Saturday"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="Binder"/>
+    <n v="68"/>
+    <x v="2"/>
+    <n v="339.32"/>
+  </r>
+  <r>
+    <d v="2008-04-22T00:00:00"/>
+    <s v="Tuesday"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="Binder"/>
+    <n v="19"/>
+    <x v="2"/>
+    <n v="94.81"/>
+  </r>
+  <r>
+    <d v="2008-04-25T00:00:00"/>
+    <s v="Friday"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="File Folder"/>
+    <n v="19"/>
+    <x v="12"/>
+    <n v="113.81"/>
+  </r>
+  <r>
+    <d v="2008-04-28T00:00:00"/>
+    <s v="Monday"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="File Folder"/>
+    <n v="19"/>
+    <x v="12"/>
+    <n v="113.81"/>
+  </r>
+  <r>
+    <d v="2008-05-01T00:00:00"/>
+    <s v="Thursday"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="Binder"/>
+    <n v="19"/>
+    <x v="2"/>
+    <n v="94.81"/>
+  </r>
+  <r>
+    <d v="2008-05-04T00:00:00"/>
+    <s v="Sunday"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="Binder"/>
+    <n v="19"/>
+    <x v="2"/>
+    <n v="94.81"/>
+  </r>
+  <r>
+    <d v="2008-05-07T00:00:00"/>
+    <s v="Wednesday"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="Binder"/>
+    <n v="19"/>
+    <x v="2"/>
+    <n v="94.81"/>
+  </r>
+</pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" outline="1" outlineData="1" createdVersion="3" updatedVersion="3" minRefreshableVersion="3" dataCaption="Values" useAutoFormatting="1" itemPrintTitles="1" indent="0">
-  <location ref="A1" colPageCount="1" rowPageCount="1" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1">
+  <location ref="A1:J29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="8">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items>
+      <items count="4">
         <item x="0"/>
         <item x="2"/>
         <item x="1"/>
@@ -642,7 +1152,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
-      <items>
+      <items count="9">
         <item x="4"/>
         <item x="3"/>
         <item x="2"/>
@@ -655,9 +1165,9 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0" dataField="1"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items>
+      <items count="14">
         <item x="7"/>
         <item x="0"/>
         <item x="3"/>
@@ -676,30 +1186,134 @@
     </pivotField>
     <pivotField showAll="0"/>
   </pivotFields>
-  <rowFields>
+  <rowFields count="2">
     <field x="2"/>
     <field x="6"/>
   </rowFields>
-  <rowItems>
+  <rowItems count="27">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="9">
     <i>
       <x/>
     </i>
     <i>
-      <x/>
+      <x v="1"/>
     </i>
-  </rowItems>
-  <colFields>
-    <field x="3"/>
-  </colFields>
-  <colItems>
     <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
       <x/>
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum" fld="5" subtotal="sum" baseField="0" baseItem="0" numFmtId="0"/>
+    <dataField name="Sum" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1"/>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="0"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
@@ -987,24 +1601,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.27734375" customWidth="1"/>
-    <col min="8" max="8" width="20.84765625" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" customWidth="1"/>
+    <col min="8" max="8" width="20.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1030,12 +1643,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickTop="1">
+    <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17">
         <v>39431</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f ca="1">TEXT(A2,"dddd")</f>
+        <f t="shared" ref="B2:B33" si="0">TEXT(A2,"dddd")</f>
         <v>Saturday</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1054,16 +1667,16 @@
         <v>1.99</v>
       </c>
       <c r="H2" s="18">
-        <f ca="1">G2*F2</f>
+        <f t="shared" ref="H2:H33" si="1">G2*F2</f>
         <v>1393</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="19">
         <v>39434</v>
       </c>
       <c r="B3" s="6" t="str">
-        <f ca="1">TEXT(A3,"dddd")</f>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -1079,19 +1692,19 @@
         <v>85</v>
       </c>
       <c r="G3" s="10">
-        <v>19.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="H3" s="20">
-        <f ca="1">G3*F3</f>
+        <f t="shared" si="1"/>
         <v>1699.1499999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="17">
         <v>39437</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f ca="1">TEXT(A4,"dddd")</f>
+        <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1110,16 +1723,16 @@
         <v>4.99</v>
       </c>
       <c r="H4" s="18">
-        <f ca="1">G4*F4</f>
+        <f t="shared" si="1"/>
         <v>309.38</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="19">
         <v>39440</v>
       </c>
       <c r="B5" s="6" t="str">
-        <f ca="1">TEXT(A5,"dddd")</f>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -1135,19 +1748,19 @@
         <v>58</v>
       </c>
       <c r="G5" s="10">
-        <v>19.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="H5" s="20">
-        <f ca="1">G5*F5</f>
+        <f t="shared" si="1"/>
         <v>1159.4199999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="17">
         <v>39443</v>
       </c>
       <c r="B6" s="1" t="str">
-        <f ca="1">TEXT(A6,"dddd")</f>
+        <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1166,16 +1779,16 @@
         <v>4.99</v>
       </c>
       <c r="H6" s="18">
-        <f ca="1">G6*F6</f>
+        <f t="shared" si="1"/>
         <v>49.900000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="19">
         <v>39446</v>
       </c>
       <c r="B7" s="6" t="str">
-        <f ca="1">TEXT(A7,"dddd")</f>
+        <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1194,16 +1807,16 @@
         <v>2.99</v>
       </c>
       <c r="H7" s="20">
-        <f ca="1">G7*F7</f>
+        <f t="shared" si="1"/>
         <v>56.81</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="17">
         <v>39449</v>
       </c>
       <c r="B8" s="1" t="str">
-        <f ca="1">TEXT(A8,"dddd")</f>
+        <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1222,16 +1835,16 @@
         <v>1.99</v>
       </c>
       <c r="H8" s="18">
-        <f ca="1">G8*F8</f>
+        <f t="shared" si="1"/>
         <v>11.94</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="19">
         <v>39452</v>
       </c>
       <c r="B9" s="6" t="str">
-        <f ca="1">TEXT(A9,"dddd")</f>
+        <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1250,16 +1863,16 @@
         <v>4.99</v>
       </c>
       <c r="H9" s="20">
-        <f ca="1">G9*F9</f>
+        <f t="shared" si="1"/>
         <v>49.900000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="17">
         <v>39455</v>
       </c>
       <c r="B10" s="1" t="str">
-        <f ca="1">TEXT(A10,"dddd")</f>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1278,16 +1891,16 @@
         <v>1.99</v>
       </c>
       <c r="H10" s="18">
-        <f ca="1">G10*F10</f>
+        <f t="shared" si="1"/>
         <v>77.61</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="19">
         <v>39458</v>
       </c>
       <c r="B11" s="6" t="str">
-        <f ca="1">TEXT(A11,"dddd")</f>
+        <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1306,16 +1919,16 @@
         <v>8.99</v>
       </c>
       <c r="H11" s="20">
-        <f ca="1">G11*F11</f>
+        <f t="shared" si="1"/>
         <v>8.99</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="17">
         <v>39461</v>
       </c>
       <c r="B12" s="1" t="str">
-        <f ca="1">TEXT(A12,"dddd")</f>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1334,16 +1947,16 @@
         <v>4.99</v>
       </c>
       <c r="H12" s="18">
-        <f ca="1">G12*F12</f>
+        <f t="shared" si="1"/>
         <v>399.20000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="19">
         <v>39464</v>
       </c>
       <c r="B13" s="6" t="str">
-        <f ca="1">TEXT(A13,"dddd")</f>
+        <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -1362,16 +1975,16 @@
         <v>1.99</v>
       </c>
       <c r="H13" s="20">
-        <f ca="1">G13*F13</f>
+        <f t="shared" si="1"/>
         <v>101.49</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="17">
         <v>39467</v>
       </c>
       <c r="B14" s="1" t="str">
-        <f ca="1">TEXT(A14,"dddd")</f>
+        <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1387,19 +2000,19 @@
         <v>10</v>
       </c>
       <c r="G14" s="5">
-        <v>19.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="H14" s="18">
-        <f ca="1">G14*F14</f>
+        <f t="shared" si="1"/>
         <v>199.89999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="19">
         <v>39470</v>
       </c>
       <c r="B15" s="6" t="str">
-        <f ca="1">TEXT(A15,"dddd")</f>
+        <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -1418,16 +2031,16 @@
         <v>4.99</v>
       </c>
       <c r="H15" s="20">
-        <f ca="1">G15*F15</f>
-        <v>74.85000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <f t="shared" si="1"/>
+        <v>74.850000000000009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="17">
         <v>39473</v>
       </c>
       <c r="B16" s="1" t="str">
-        <f ca="1">TEXT(A16,"dddd")</f>
+        <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1446,16 +2059,16 @@
         <v>125</v>
       </c>
       <c r="H16" s="18">
-        <f ca="1">G16*F16</f>
+        <f t="shared" si="1"/>
         <v>3875</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="19">
         <v>39476</v>
       </c>
       <c r="B17" s="6" t="str">
-        <f ca="1">TEXT(A17,"dddd")</f>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -1474,16 +2087,16 @@
         <v>15.99</v>
       </c>
       <c r="H17" s="20">
-        <f ca="1">G17*F17</f>
+        <f t="shared" si="1"/>
         <v>735.54</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="17">
         <v>39479</v>
       </c>
       <c r="B18" s="1" t="str">
-        <f ca="1">TEXT(A18,"dddd")</f>
+        <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1502,16 +2115,16 @@
         <v>8.99</v>
       </c>
       <c r="H18" s="18">
-        <f ca="1">G18*F18</f>
+        <f t="shared" si="1"/>
         <v>548.39</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="19">
         <v>39482</v>
       </c>
       <c r="B19" s="6" t="str">
-        <f ca="1">TEXT(A19,"dddd")</f>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -1530,16 +2143,16 @@
         <v>8.99</v>
       </c>
       <c r="H19" s="20">
-        <f ca="1">G19*F19</f>
+        <f t="shared" si="1"/>
         <v>809.1</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="17">
         <v>39485</v>
       </c>
       <c r="B20" s="1" t="str">
-        <f ca="1">TEXT(A20,"dddd")</f>
+        <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -1555,19 +2168,19 @@
         <v>43</v>
       </c>
       <c r="G20" s="5">
-        <v>19.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="H20" s="18">
-        <f ca="1">G20*F20</f>
-        <v>859.5699999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <f t="shared" si="1"/>
+        <v>859.56999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="19">
         <v>39488</v>
       </c>
       <c r="B21" s="6" t="str">
-        <f ca="1">TEXT(A21,"dddd")</f>
+        <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -1586,16 +2199,16 @@
         <v>4.99</v>
       </c>
       <c r="H21" s="20">
-        <f ca="1">G21*F21</f>
+        <f t="shared" si="1"/>
         <v>159.68</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="17">
         <v>39491</v>
       </c>
       <c r="B22" s="1" t="str">
-        <f ca="1">TEXT(A22,"dddd")</f>
+        <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1614,16 +2227,16 @@
         <v>1.29</v>
       </c>
       <c r="H22" s="18">
-        <f ca="1">G22*F22</f>
+        <f t="shared" si="1"/>
         <v>47.730000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="19">
         <v>39494</v>
       </c>
       <c r="B23" s="6" t="str">
-        <f ca="1">TEXT(A23,"dddd")</f>
+        <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -1642,16 +2255,16 @@
         <v>15.99</v>
       </c>
       <c r="H23" s="20">
-        <f ca="1">G23*F23</f>
+        <f t="shared" si="1"/>
         <v>415.74</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="17">
         <v>39497</v>
       </c>
       <c r="B24" s="1" t="str">
-        <f ca="1">TEXT(A24,"dddd")</f>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -1670,16 +2283,16 @@
         <v>8.99</v>
       </c>
       <c r="H24" s="18">
-        <f ca="1">G24*F24</f>
+        <f t="shared" si="1"/>
         <v>710.21</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="19">
         <v>39500</v>
       </c>
       <c r="B25" s="6" t="str">
-        <f ca="1">TEXT(A25,"dddd")</f>
+        <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -1698,16 +2311,16 @@
         <v>15</v>
       </c>
       <c r="H25" s="20">
-        <f ca="1">G25*F25</f>
+        <f t="shared" si="1"/>
         <v>1080</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="17">
         <v>39503</v>
       </c>
       <c r="B26" s="1" t="str">
-        <f ca="1">TEXT(A26,"dddd")</f>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1726,16 +2339,16 @@
         <v>4.99</v>
       </c>
       <c r="H26" s="18">
-        <f ca="1">G26*F26</f>
+        <f t="shared" si="1"/>
         <v>134.73000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="19">
         <v>39506</v>
       </c>
       <c r="B27" s="6" t="str">
-        <f ca="1">TEXT(A27,"dddd")</f>
+        <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -1751,19 +2364,19 @@
         <v>5</v>
       </c>
       <c r="G27" s="10">
-        <v>19.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="H27" s="20">
-        <f ca="1">G27*F27</f>
-        <v>99.94999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <f t="shared" si="1"/>
+        <v>99.949999999999989</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="17">
         <v>39509</v>
       </c>
       <c r="B28" s="1" t="str">
-        <f ca="1">TEXT(A28,"dddd")</f>
+        <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1782,16 +2395,16 @@
         <v>4.99</v>
       </c>
       <c r="H28" s="18">
-        <f ca="1">G28*F28</f>
-        <v>294.41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <f t="shared" si="1"/>
+        <v>294.41000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="19">
         <v>39512</v>
       </c>
       <c r="B29" s="6" t="str">
-        <f ca="1">TEXT(A29,"dddd")</f>
+        <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -1810,16 +2423,16 @@
         <v>1.99</v>
       </c>
       <c r="H29" s="20">
-        <f ca="1">G29*F29</f>
+        <f t="shared" si="1"/>
         <v>81.59</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="17">
         <v>39515</v>
       </c>
       <c r="B30" s="1" t="str">
-        <f ca="1">TEXT(A30,"dddd")</f>
+        <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1838,16 +2451,16 @@
         <v>4.99</v>
       </c>
       <c r="H30" s="18">
-        <f ca="1">G30*F30</f>
+        <f t="shared" si="1"/>
         <v>424.15000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="19">
         <v>39518</v>
       </c>
       <c r="B31" s="6" t="str">
-        <f ca="1">TEXT(A31,"dddd")</f>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
       <c r="C31" s="9" t="s">
@@ -1866,16 +2479,16 @@
         <v>1.29</v>
       </c>
       <c r="H31" s="20">
-        <f ca="1">G31*F31</f>
+        <f t="shared" si="1"/>
         <v>78.69</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="17">
         <v>39521</v>
       </c>
       <c r="B32" s="1" t="str">
-        <f ca="1">TEXT(A32,"dddd")</f>
+        <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -1894,16 +2507,16 @@
         <v>8.99</v>
       </c>
       <c r="H32" s="18">
-        <f ca="1">G32*F32</f>
+        <f t="shared" si="1"/>
         <v>80.91</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="19">
         <v>39524</v>
       </c>
       <c r="B33" s="6" t="str">
-        <f ca="1">TEXT(A33,"dddd")</f>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -1922,16 +2535,16 @@
         <v>125</v>
       </c>
       <c r="H33" s="20">
-        <f ca="1">G33*F33</f>
+        <f t="shared" si="1"/>
         <v>6500</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="17">
         <v>39527</v>
       </c>
       <c r="B34" s="1" t="str">
-        <f ca="1">TEXT(A34,"dddd")</f>
+        <f t="shared" ref="B34:B65" si="2">TEXT(A34,"dddd")</f>
         <v>Thursday</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -1950,16 +2563,16 @@
         <v>4.99</v>
       </c>
       <c r="H34" s="18">
-        <f ca="1">G34*F34</f>
+        <f t="shared" ref="H34:H65" si="3">G34*F34</f>
         <v>374.25</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="19">
         <v>39530</v>
       </c>
       <c r="B35" s="6" t="str">
-        <f ca="1">TEXT(A35,"dddd")</f>
+        <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -1978,16 +2591,16 @@
         <v>12.49</v>
       </c>
       <c r="H35" s="20">
-        <f ca="1">G35*F35</f>
+        <f t="shared" si="3"/>
         <v>1211.53</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="17">
         <v>39533</v>
       </c>
       <c r="B36" s="1" t="str">
-        <f ca="1">TEXT(A36,"dddd")</f>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -2006,16 +2619,16 @@
         <v>23.95</v>
       </c>
       <c r="H36" s="18">
-        <f ca="1">G36*F36</f>
-        <v>2059.7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <f t="shared" si="3"/>
+        <v>2059.6999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="19">
         <v>39536</v>
       </c>
       <c r="B37" s="6" t="str">
-        <f ca="1">TEXT(A37,"dddd")</f>
+        <f t="shared" si="2"/>
         <v>Saturday</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -2034,16 +2647,16 @@
         <v>275</v>
       </c>
       <c r="H37" s="20">
-        <f ca="1">G37*F37</f>
+        <f t="shared" si="3"/>
         <v>2200</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="17">
         <v>39539</v>
       </c>
       <c r="B38" s="1" t="str">
-        <f ca="1">TEXT(A38,"dddd")</f>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -2062,16 +2675,16 @@
         <v>1.29</v>
       </c>
       <c r="H38" s="18">
-        <f ca="1">G38*F38</f>
+        <f t="shared" si="3"/>
         <v>116.10000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="19">
         <v>39542</v>
       </c>
       <c r="B39" s="6" t="str">
-        <f ca="1">TEXT(A39,"dddd")</f>
+        <f t="shared" si="2"/>
         <v>Friday</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -2090,16 +2703,16 @@
         <v>1.99</v>
       </c>
       <c r="H39" s="20">
-        <f ca="1">G39*F39</f>
+        <f t="shared" si="3"/>
         <v>65.67</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="17">
         <v>39545</v>
       </c>
       <c r="B40" s="1" t="str">
-        <f ca="1">TEXT(A40,"dddd")</f>
+        <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -2115,19 +2728,19 @@
         <v>53</v>
       </c>
       <c r="G40" s="5">
-        <v>19.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="H40" s="18">
-        <f ca="1">G40*F40</f>
+        <f t="shared" si="3"/>
         <v>1059.47</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="19">
         <v>39548</v>
       </c>
       <c r="B41" s="6" t="str">
-        <f ca="1">TEXT(A41,"dddd")</f>
+        <f t="shared" si="2"/>
         <v>Thursday</v>
       </c>
       <c r="C41" s="9" t="s">
@@ -2146,16 +2759,16 @@
         <v>1.29</v>
       </c>
       <c r="H41" s="20">
-        <f ca="1">G41*F41</f>
+        <f t="shared" si="3"/>
         <v>32.25</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="17">
         <v>39551</v>
       </c>
       <c r="B42" s="1" t="str">
-        <f ca="1">TEXT(A42,"dddd")</f>
+        <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -2174,16 +2787,16 @@
         <v>4.99</v>
       </c>
       <c r="H42" s="18">
-        <f ca="1">G42*F42</f>
+        <f t="shared" si="3"/>
         <v>434.13</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="19">
         <v>39554</v>
       </c>
       <c r="B43" s="6" t="str">
-        <f ca="1">TEXT(A43,"dddd")</f>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -2199,19 +2812,19 @@
         <v>95</v>
       </c>
       <c r="G43" s="10">
-        <v>19.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="H43" s="20">
-        <f ca="1">G43*F43</f>
+        <f t="shared" si="3"/>
         <v>1899.05</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="17">
         <v>39557</v>
       </c>
       <c r="B44" s="1" t="str">
-        <f ca="1">TEXT(A44,"dddd")</f>
+        <f t="shared" si="2"/>
         <v>Saturday</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -2230,16 +2843,16 @@
         <v>4.99</v>
       </c>
       <c r="H44" s="18">
-        <f ca="1">G44*F44</f>
+        <f t="shared" si="3"/>
         <v>339.32</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="19">
         <v>39560</v>
       </c>
       <c r="B45" s="6" t="str">
-        <f ca="1">TEXT(A45,"dddd")</f>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
       <c r="C45" s="9" t="s">
@@ -2258,16 +2871,16 @@
         <v>4.99</v>
       </c>
       <c r="H45" s="20">
-        <f ca="1">G45*F45</f>
+        <f t="shared" si="3"/>
         <v>94.81</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="17">
         <v>39563</v>
       </c>
       <c r="B46" s="1" t="str">
-        <f ca="1">TEXT(A46,"dddd")</f>
+        <f t="shared" si="2"/>
         <v>Friday</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -2286,16 +2899,16 @@
         <v>5.99</v>
       </c>
       <c r="H46" s="18">
-        <f ca="1">G46*F46</f>
+        <f t="shared" si="3"/>
         <v>113.81</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="19">
         <v>39566</v>
       </c>
       <c r="B47" s="6" t="str">
-        <f ca="1">TEXT(A47,"dddd")</f>
+        <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
       <c r="C47" s="9" t="s">
@@ -2314,16 +2927,16 @@
         <v>5.99</v>
       </c>
       <c r="H47" s="20">
-        <f ca="1">G47*F47</f>
+        <f t="shared" si="3"/>
         <v>113.81</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="17">
         <v>39569</v>
       </c>
       <c r="B48" s="1" t="str">
-        <f ca="1">TEXT(A48,"dddd")</f>
+        <f t="shared" si="2"/>
         <v>Thursday</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -2342,16 +2955,16 @@
         <v>4.99</v>
       </c>
       <c r="H48" s="18">
-        <f ca="1">G48*F48</f>
+        <f t="shared" si="3"/>
         <v>94.81</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="19">
         <v>39572</v>
       </c>
       <c r="B49" s="6" t="str">
-        <f ca="1">TEXT(A49,"dddd")</f>
+        <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -2370,16 +2983,16 @@
         <v>4.99</v>
       </c>
       <c r="H49" s="20">
-        <f ca="1">G49*F49</f>
+        <f t="shared" si="3"/>
         <v>94.81</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="21">
         <v>39575</v>
       </c>
       <c r="B50" s="22" t="str">
-        <f ca="1">TEXT(A50,"dddd")</f>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
       <c r="C50" s="23" t="s">
@@ -2398,54 +3011,620 @@
         <v>4.99</v>
       </c>
       <c r="H50" s="26">
-        <f ca="1">G50*F50</f>
+        <f t="shared" si="3"/>
         <v>94.81</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35">
+        <v>398</v>
+      </c>
+      <c r="E3" s="35">
+        <v>943</v>
+      </c>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="37">
+        <v>1.99</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39">
+        <v>700</v>
+      </c>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="40">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="37">
+        <v>4.99</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39">
+        <v>303</v>
+      </c>
+      <c r="E5" s="39">
+        <v>102</v>
+      </c>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="40">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="37">
+        <v>8.99</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39">
+        <v>90</v>
+      </c>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="40">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="37">
+        <v>15.99</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39">
+        <v>46</v>
+      </c>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="40">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="37">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39">
+        <v>95</v>
+      </c>
+      <c r="E8" s="39">
+        <v>5</v>
+      </c>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="38">
+        <v>35</v>
+      </c>
+      <c r="C9" s="39">
+        <v>545</v>
+      </c>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39">
+        <v>69</v>
+      </c>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="37">
+        <v>1.29</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39">
+        <v>176</v>
+      </c>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="37">
+        <v>1.99</v>
+      </c>
+      <c r="B11" s="38">
+        <v>6</v>
+      </c>
+      <c r="C11" s="39">
+        <v>41</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="37">
+        <v>2.99</v>
+      </c>
+      <c r="B12" s="38">
+        <v>19</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="37">
+        <v>4.99</v>
+      </c>
+      <c r="B13" s="38">
+        <v>10</v>
+      </c>
+      <c r="C13" s="39">
+        <v>144</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="37">
+        <v>5.99</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39">
+        <v>38</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="37">
+        <v>8.99</v>
+      </c>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39">
+        <v>88</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="40">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="37">
+        <v>15.99</v>
+      </c>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39">
+        <v>26</v>
+      </c>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="40">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="37">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39">
+        <v>58</v>
+      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39">
+        <v>43</v>
+      </c>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="40">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39">
+        <v>413</v>
+      </c>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39">
+        <v>203</v>
+      </c>
+      <c r="I18" s="39">
+        <v>227</v>
+      </c>
+      <c r="J18" s="40">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="37">
+        <v>1.29</v>
+      </c>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39">
+        <v>37</v>
+      </c>
+      <c r="I19" s="39"/>
+      <c r="J19" s="40">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="37">
+        <v>1.99</v>
+      </c>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39">
+        <v>33</v>
+      </c>
+      <c r="I20" s="39">
+        <v>90</v>
+      </c>
+      <c r="J20" s="40">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="37">
+        <v>4.99</v>
+      </c>
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39">
+        <v>32</v>
+      </c>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39">
+        <v>95</v>
+      </c>
+      <c r="J21" s="40">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="37">
+        <v>8.99</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39">
+        <v>61</v>
+      </c>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39">
+        <v>1</v>
+      </c>
+      <c r="J22" s="40">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="37">
+        <v>12.49</v>
+      </c>
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39">
+        <v>97</v>
+      </c>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="40">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="37">
+        <v>15</v>
+      </c>
+      <c r="B24" s="38"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39">
+        <v>72</v>
+      </c>
+      <c r="I24" s="39"/>
+      <c r="J24" s="40">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="37">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39">
+        <v>85</v>
+      </c>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39">
+        <v>53</v>
+      </c>
+      <c r="I25" s="39">
+        <v>10</v>
+      </c>
+      <c r="J25" s="40">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="37">
+        <v>23.95</v>
+      </c>
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39">
+        <v>86</v>
+      </c>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="40">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="37">
+        <v>125</v>
+      </c>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39">
+        <v>52</v>
+      </c>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39">
+        <v>31</v>
+      </c>
+      <c r="J27" s="40">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="37">
+        <v>275</v>
+      </c>
+      <c r="B28" s="38"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39">
+        <v>8</v>
+      </c>
+      <c r="I28" s="39"/>
+      <c r="J28" s="40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="43">
+        <v>35</v>
+      </c>
+      <c r="C29" s="44">
+        <v>545</v>
+      </c>
+      <c r="D29" s="44">
+        <v>398</v>
+      </c>
+      <c r="E29" s="44">
+        <v>943</v>
+      </c>
+      <c r="F29" s="44">
+        <v>413</v>
+      </c>
+      <c r="G29" s="44">
+        <v>69</v>
+      </c>
+      <c r="H29" s="44">
+        <v>203</v>
+      </c>
+      <c r="I29" s="44">
+        <v>227</v>
+      </c>
+      <c r="J29" s="45">
+        <v>2833</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF4500"/>
-  </sheetPr>
-  <dimension ref="A10"/>
-  <sheetViews>
-    <sheetView view="normal" tabSelected="1" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="10" spans="1:1" ht="25" customHeight="1">
-      <c r="A10" s="27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection password="F7F5" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>